--- a/Packet/PacketData/LogInCache.xlsx
+++ b/Packet/PacketData/LogInCache.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="キャラクタ情報リクエスト" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="キャラクタ情報レスポンス" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -81,6 +83,36 @@
   </si>
   <si>
     <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCharacterDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCharacterDataRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketCharacterDataResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheCharacterDataResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp</t>
   </si>
 </sst>
 </file>
@@ -192,7 +224,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -359,4 +391,214 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/LogInCache.xlsx
+++ b/Packet/PacketData/LogInCache.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="キャラクタ情報リクエスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="キャラクタ情報レスポンス" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ログアウト地点リクエスト" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ログアウト地点レスポンス" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -113,6 +115,30 @@
   </si>
   <si>
     <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketLogOutPointRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheLogOutPointRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CachePacketLogOutPointResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CacheLogOutPointResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
 </sst>
 </file>
@@ -472,7 +498,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -601,4 +627,170 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/LogInCache.xlsx
+++ b/Packet/PacketData/LogInCache.xlsx
@@ -5,15 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="キャラクタ情報リクエスト" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="キャラクタ情報レスポンス" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="ログアウト地点リクエスト" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="ログアウト地点レスポンス" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -117,28 +115,16 @@
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
-    <t xml:space="preserve">CachePacketLogOutPointRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheLogOutPointRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CachePacketLogOutPointResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CacheLogOutPointResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaId</t>
+    <t xml:space="preserve">LastAreaId</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">LastX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastY</t>
   </si>
 </sst>
 </file>
@@ -496,10 +482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,6 +604,39 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -627,170 +646,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>